--- a/meta/telegrams/ResponseHeader.xlsx
+++ b/meta/telegrams/ResponseHeader.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorTs/meta/objects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/cacco/oplux/oplux-prototype-frontend2/meta/telegrams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7025EFEE-7702-4F44-83B0-E6DEEDF5DDB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED87350-30A3-E04A-880F-D0A1BB625D7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10800" yWindow="6880" windowWidth="24240" windowHeight="13740" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11080" yWindow="4720" windowWidth="24240" windowHeight="13740" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valueObject" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>クラス名</t>
   </si>
@@ -128,16 +128,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>APIが返すレスポンスのヘッダを定義します</t>
-    <rPh sb="4" eb="5">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>テイギ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>総称型</t>
     <rPh sb="0" eb="2">
       <t>ソウショウガタ</t>
@@ -207,18 +197,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>token</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>認証キー</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>バリューオブジェクト定義書 設定シート</t>
     <rPh sb="14" eb="16">
       <t>セッテイ</t>
@@ -302,38 +280,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>locale</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>LocaleInfo</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ロケール情報</t>
-    <rPh sb="4" eb="6">
-      <t xml:space="preserve">ジョウホウ </t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>charset</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>文字情報（常にUTF-8）</t>
-    <rPh sb="0" eb="4">
-      <t xml:space="preserve">モジジョウホウ </t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t xml:space="preserve">ツネニ </t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>バリューオブジェクト定義(php)・インポート</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -386,7 +332,11 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>"UTF-8"</t>
+    <t>Nullable</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>その他</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -409,15 +359,26 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>その他</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Nullable</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>new LocaleInfo()</t>
+    <t>APIが返すレスポンスのヘッダを表す型です</t>
+    <rPh sb="4" eb="5">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">アラワス </t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t xml:space="preserve">カタ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>APIが返すレスポンスのヘッダを表す型です</t>
+    <rPh sb="4" eb="5">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>テイギ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -527,7 +488,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -753,6 +714,19 @@
         <color indexed="8"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
@@ -1106,53 +1080,25 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1206,37 +1152,37 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1244,29 +1190,29 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1275,23 +1221,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1305,50 +1251,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1356,9 +1273,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1772,15 +1722,15 @@
   </sheetPr>
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="6" width="23.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="34" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="34" customWidth="1"/>
     <col min="8" max="12" width="9" style="1" customWidth="1"/>
     <col min="13" max="13" width="13.1640625" style="1" customWidth="1"/>
     <col min="14" max="14" width="6.83203125" style="1" customWidth="1"/>
@@ -1816,14 +1766,14 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="5"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="97"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="3" t="s">
@@ -1836,14 +1786,14 @@
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="8"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="97"/>
-      <c r="O6" s="97"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="3" t="s">
@@ -1851,19 +1801,19 @@
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="10" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="103"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="97"/>
+      <c r="F7" s="90"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
@@ -1871,60 +1821,44 @@
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="10" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
-      <c r="F8" s="103"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="97"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="97"/>
+      <c r="F8" s="90"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
     </row>
     <row r="9" spans="1:15" s="34" customFormat="1">
-      <c r="A9" s="81" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="96" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="98"/>
+      <c r="A9" s="96" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="97"/>
+      <c r="C9" s="92" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="34" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="10" spans="1:15" s="34" customFormat="1">
       <c r="A10" s="60" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B10" s="61"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="79"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="93"/>
       <c r="E10" s="63"/>
-      <c r="F10" s="104"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="98"/>
-      <c r="N10" s="98"/>
-      <c r="O10" s="98"/>
+      <c r="F10" s="95"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="3" t="s">
@@ -1932,19 +1866,19 @@
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="8"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="97"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="97"/>
-      <c r="M11" s="97"/>
-      <c r="N11" s="97"/>
-      <c r="O11" s="97"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="84"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
@@ -1952,23 +1886,23 @@
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="8"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="97"/>
-      <c r="L12" s="97"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="97"/>
-      <c r="O12" s="97"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="84"/>
+      <c r="N12" s="84"/>
+      <c r="O12" s="84"/>
     </row>
     <row r="13" spans="1:15" s="34" customFormat="1">
       <c r="A13" s="55" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B13" s="56"/>
       <c r="C13" s="57"/>
@@ -1976,78 +1910,76 @@
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="98"/>
-      <c r="N13" s="98"/>
-      <c r="O13" s="98"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="34" customFormat="1">
       <c r="A14" s="55" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B14" s="56"/>
       <c r="C14" s="57" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="98"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="34" customFormat="1">
       <c r="A15" s="55" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B15" s="56"/>
-      <c r="C15" s="57" t="s">
-        <v>44</v>
-      </c>
+      <c r="C15" s="57"/>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="98"/>
-      <c r="N15" s="98"/>
-      <c r="O15" s="98"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="34" customFormat="1">
       <c r="A16" s="76" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B16" s="77"/>
       <c r="C16" s="57" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F16"/>
       <c r="G16"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="98"/>
-      <c r="O16" s="98"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="86"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="12"/>
@@ -2057,14 +1989,14 @@
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="100"/>
-      <c r="N17" s="100"/>
-      <c r="O17" s="97"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="84"/>
     </row>
     <row r="18" spans="1:17" s="34" customFormat="1">
       <c r="A18" s="31" t="s">
@@ -2075,14 +2007,14 @@
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
       <c r="F18" s="33"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="98"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="98"/>
-      <c r="N18" s="98"/>
-      <c r="O18" s="98"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="86"/>
     </row>
     <row r="19" spans="1:17" s="34" customFormat="1">
       <c r="A19" s="35" t="s">
@@ -2093,15 +2025,15 @@
       <c r="D19" s="37"/>
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="98"/>
-      <c r="N19" s="98"/>
-      <c r="O19" s="98"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="86"/>
     </row>
     <row r="20" spans="1:17" s="34" customFormat="1">
       <c r="A20" s="60" t="s">
@@ -2112,15 +2044,15 @@
       <c r="D20" s="63"/>
       <c r="E20" s="63"/>
       <c r="F20" s="38"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="98"/>
-      <c r="N20" s="98"/>
-      <c r="O20" s="98"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="86"/>
     </row>
     <row r="21" spans="1:17" s="34" customFormat="1">
       <c r="A21" s="60" t="s">
@@ -2131,15 +2063,15 @@
       <c r="D21" s="63"/>
       <c r="E21" s="63"/>
       <c r="F21" s="38"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="98"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="98"/>
-      <c r="N21" s="98"/>
-      <c r="O21" s="98"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="86"/>
+      <c r="O21" s="86"/>
     </row>
     <row r="22" spans="1:17" s="34" customFormat="1">
       <c r="A22"/>
@@ -2149,53 +2081,53 @@
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="98"/>
-      <c r="J22" s="98"/>
-      <c r="K22" s="98"/>
-      <c r="L22" s="98"/>
-      <c r="M22" s="98"/>
-      <c r="N22" s="98"/>
-      <c r="O22" s="98"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="86"/>
+      <c r="O22" s="86"/>
     </row>
     <row r="23" spans="1:17" s="34" customFormat="1">
       <c r="A23" s="31" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
       <c r="D23" s="32"/>
       <c r="E23" s="32"/>
       <c r="F23" s="32"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="98"/>
-      <c r="J23" s="98"/>
-      <c r="K23" s="98"/>
-      <c r="L23" s="98"/>
-      <c r="M23" s="98"/>
-      <c r="N23" s="98"/>
-      <c r="O23" s="98"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="86"/>
     </row>
     <row r="24" spans="1:17" s="34" customFormat="1">
       <c r="A24" s="64" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B24" s="65" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C24" s="65"/>
       <c r="D24" s="65"/>
       <c r="E24" s="65"/>
       <c r="F24" s="36"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="102"/>
-      <c r="K24" s="102"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="98"/>
-      <c r="N24" s="98"/>
-      <c r="O24" s="98"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="86"/>
     </row>
     <row r="25" spans="1:17" s="34" customFormat="1">
       <c r="A25" s="66"/>
@@ -2204,15 +2136,15 @@
       <c r="D25" s="68"/>
       <c r="E25" s="68"/>
       <c r="F25" s="69"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="99"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="98"/>
-      <c r="M25" s="98"/>
-      <c r="N25" s="98"/>
-      <c r="O25" s="98"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="86"/>
     </row>
     <row r="26" spans="1:17" s="34" customFormat="1">
       <c r="A26" s="66"/>
@@ -2221,15 +2153,15 @@
       <c r="D26" s="70"/>
       <c r="E26" s="70"/>
       <c r="F26" s="71"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="99"/>
-      <c r="J26" s="99"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="98"/>
-      <c r="M26" s="98"/>
-      <c r="N26" s="98"/>
-      <c r="O26" s="98"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="86"/>
+      <c r="O26" s="86"/>
     </row>
     <row r="27" spans="1:17" s="34" customFormat="1">
       <c r="A27" s="72"/>
@@ -2238,15 +2170,15 @@
       <c r="D27" s="74"/>
       <c r="E27" s="74"/>
       <c r="F27" s="75"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="99"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="98"/>
-      <c r="M27" s="98"/>
-      <c r="N27" s="98"/>
-      <c r="O27" s="98"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="86"/>
     </row>
     <row r="28" spans="1:17" s="34" customFormat="1">
       <c r="A28"/>
@@ -2281,162 +2213,127 @@
       <c r="Q29" s="14"/>
     </row>
     <row r="30" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A30" s="84" t="s">
+      <c r="A30" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="84" t="s">
+      <c r="B30" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="83" t="s">
+      <c r="C30" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="83" t="s">
+      <c r="D30" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="85" t="s">
+      <c r="F30" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="105" t="s">
+        <v>49</v>
+      </c>
+      <c r="H30" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="83" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="H30" s="87" t="s">
+      <c r="I30" s="104"/>
+      <c r="J30" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="I30" s="88"/>
-      <c r="J30" s="87" t="s">
+      <c r="K30" s="104"/>
+      <c r="L30" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="K30" s="88"/>
-      <c r="L30" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="M30" s="83" t="s">
+      <c r="M30" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="N30" s="83"/>
+      <c r="N30" s="98"/>
       <c r="O30" s="15"/>
       <c r="P30" s="16"/>
       <c r="Q30" s="9"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="84"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="92"/>
+      <c r="A31" s="99"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="105"/>
       <c r="H31" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="42" t="s">
+      <c r="J31" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="J31" s="42" t="s">
+      <c r="K31" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="K31" s="42" t="s">
+      <c r="L31" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="L31" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="M31" s="83"/>
-      <c r="N31" s="83"/>
+      <c r="M31" s="98"/>
+      <c r="N31" s="98"/>
       <c r="O31" s="17"/>
       <c r="P31" s="29"/>
       <c r="Q31" s="14"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="18">
-        <v>1</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>29</v>
-      </c>
+      <c r="A32" s="18"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="93" t="s">
-        <v>44</v>
-      </c>
+      <c r="F32" s="91"/>
+      <c r="G32" s="80"/>
       <c r="H32" s="43"/>
       <c r="I32" s="44"/>
       <c r="J32" s="43"/>
       <c r="K32" s="44"/>
       <c r="L32" s="45"/>
-      <c r="M32" s="20" t="s">
-        <v>30</v>
-      </c>
+      <c r="M32" s="20"/>
       <c r="N32" s="21"/>
       <c r="O32" s="21"/>
       <c r="P32" s="28"/>
       <c r="Q32" s="14"/>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="18">
-        <f>A32+1</f>
-        <v>2</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>47</v>
-      </c>
+      <c r="A33" s="18"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="20"/>
       <c r="D33" s="20"/>
-      <c r="E33" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="G33" s="58"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="81"/>
       <c r="H33" s="20"/>
       <c r="I33" s="20"/>
       <c r="J33" s="20"/>
       <c r="K33" s="20"/>
       <c r="L33" s="20"/>
-      <c r="M33" s="20" t="s">
-        <v>48</v>
-      </c>
+      <c r="M33" s="20"/>
       <c r="N33" s="21"/>
       <c r="O33" s="21"/>
       <c r="P33" s="22"/>
       <c r="Q33" s="14"/>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="18">
-        <v>3</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="58" t="s">
-        <v>29</v>
-      </c>
+      <c r="A34" s="18"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="58"/>
       <c r="D34" s="58"/>
-      <c r="E34" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F34" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="G34" s="58"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="81"/>
       <c r="H34" s="58"/>
       <c r="I34" s="58"/>
       <c r="J34" s="58"/>
       <c r="K34" s="58"/>
       <c r="L34" s="58"/>
-      <c r="M34" s="58" t="s">
-        <v>51</v>
-      </c>
+      <c r="M34" s="58"/>
       <c r="N34" s="59"/>
       <c r="O34" s="21"/>
       <c r="P34" s="22"/>
@@ -2449,7 +2346,7 @@
       <c r="D35" s="20"/>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
-      <c r="G35" s="58"/>
+      <c r="G35" s="81"/>
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
       <c r="J35" s="20"/>
@@ -2468,7 +2365,7 @@
       <c r="D36" s="20"/>
       <c r="E36" s="20"/>
       <c r="F36" s="30"/>
-      <c r="G36" s="94"/>
+      <c r="G36" s="82"/>
       <c r="H36" s="30"/>
       <c r="I36" s="30"/>
       <c r="J36" s="30"/>
@@ -2506,7 +2403,7 @@
       <c r="D38" s="20"/>
       <c r="E38" s="20"/>
       <c r="F38" s="30"/>
-      <c r="G38" s="94"/>
+      <c r="G38" s="82"/>
       <c r="H38" s="30"/>
       <c r="I38" s="30"/>
       <c r="J38" s="30"/>
@@ -2544,7 +2441,7 @@
       <c r="D40" s="20"/>
       <c r="E40" s="20"/>
       <c r="F40" s="30"/>
-      <c r="G40" s="94"/>
+      <c r="G40" s="82"/>
       <c r="H40" s="30"/>
       <c r="I40" s="30"/>
       <c r="J40" s="30"/>
@@ -2658,7 +2555,7 @@
       <c r="D46" s="25"/>
       <c r="E46" s="25"/>
       <c r="F46" s="25"/>
-      <c r="G46" s="95"/>
+      <c r="G46" s="83"/>
       <c r="H46" s="25"/>
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
@@ -2702,7 +2599,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E32:E46" xr:uid="{996D155C-60DA-6346-AF74-0220EB10558B}">
       <formula1>isRequired</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G32:G46" xr:uid="{B2CE2C6F-0340-D64C-B2B0-2821CEEE769E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G32:G46" xr:uid="{796415FF-0DCF-6448-91D1-DFF5BDCB761B}">
       <formula1>others</formula1>
     </dataValidation>
   </dataValidations>
@@ -2722,7 +2619,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:N5"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -2743,7 +2640,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="19">
       <c r="A1" s="46" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B1" s="46"/>
       <c r="C1" s="46"/>
@@ -2754,31 +2651,31 @@
       <c r="H1" s="46"/>
       <c r="I1" s="46"/>
       <c r="J1" s="47" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M1" s="47"/>
     </row>
     <row r="3" spans="1:14">
       <c r="B3" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="L3" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="49" t="s">
-        <v>38</v>
-      </c>
       <c r="N3" s="49" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -2792,25 +2689,25 @@
     </row>
     <row r="5" spans="1:14">
       <c r="B5" s="52" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H5" s="53" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J5" s="53" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L5" s="53" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N5" s="53" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:14">
